--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.60438815539265</v>
+        <v>4.83236</v>
       </c>
       <c r="H2">
-        <v>4.60438815539265</v>
+        <v>14.49708</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.7809202762827</v>
+        <v>14.08030833333333</v>
       </c>
       <c r="N2">
-        <v>13.7809202762827</v>
+        <v>42.240925</v>
       </c>
       <c r="O2">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="P2">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="Q2">
-        <v>63.45270609052647</v>
+        <v>68.04111877766667</v>
       </c>
       <c r="R2">
-        <v>63.45270609052647</v>
+        <v>612.370068999</v>
       </c>
       <c r="S2">
-        <v>0.1576521944016137</v>
+        <v>0.151810847864463</v>
       </c>
       <c r="T2">
-        <v>0.1576521944016137</v>
+        <v>0.151810847864463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.60438815539265</v>
+        <v>4.83236</v>
       </c>
       <c r="H3">
-        <v>4.60438815539265</v>
+        <v>14.49708</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.0977438451586</v>
+        <v>43.15322233333333</v>
       </c>
       <c r="N3">
-        <v>43.0977438451586</v>
+        <v>129.459667</v>
       </c>
       <c r="O3">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="P3">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="Q3">
-        <v>198.4387412847947</v>
+        <v>208.5319054747067</v>
       </c>
       <c r="R3">
-        <v>198.4387412847947</v>
+        <v>1876.78714927236</v>
       </c>
       <c r="S3">
-        <v>0.4930333936145987</v>
+        <v>0.4652687366936457</v>
       </c>
       <c r="T3">
-        <v>0.4930333936145987</v>
+        <v>0.4652687366936458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.60438815539265</v>
+        <v>4.83236</v>
       </c>
       <c r="H4">
-        <v>4.60438815539265</v>
+        <v>14.49708</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.8787748879485</v>
+        <v>21.909414</v>
       </c>
       <c r="N4">
-        <v>20.8787748879485</v>
+        <v>65.72824199999999</v>
       </c>
       <c r="O4">
-        <v>0.2388508613004085</v>
+        <v>0.2421924229181179</v>
       </c>
       <c r="P4">
-        <v>0.2388508613004085</v>
+        <v>0.242192422918118</v>
       </c>
       <c r="Q4">
-        <v>96.13398379317957</v>
+        <v>105.87417583704</v>
       </c>
       <c r="R4">
-        <v>96.13398379317957</v>
+        <v>952.86758253336</v>
       </c>
       <c r="S4">
-        <v>0.2388508613004085</v>
+        <v>0.2362225767229436</v>
       </c>
       <c r="T4">
-        <v>0.2388508613004085</v>
+        <v>0.2362225767229436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.83236</v>
+      </c>
+      <c r="H5">
+        <v>14.49708</v>
+      </c>
+      <c r="I5">
+        <v>0.975350813525687</v>
+      </c>
+      <c r="J5">
+        <v>0.975350813525687</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>11.31989366666667</v>
+      </c>
+      <c r="N5">
+        <v>33.959681</v>
+      </c>
+      <c r="O5">
+        <v>0.1251330808895874</v>
+      </c>
+      <c r="P5">
+        <v>0.1251330808895874</v>
+      </c>
+      <c r="Q5">
+        <v>54.70180135905334</v>
+      </c>
+      <c r="R5">
+        <v>492.3162122314801</v>
+      </c>
+      <c r="S5">
+        <v>0.1220486522446347</v>
+      </c>
+      <c r="T5">
+        <v>0.1220486522446347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.122124</v>
+      </c>
+      <c r="H6">
+        <v>0.366372</v>
+      </c>
+      <c r="I6">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="J6">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>14.08030833333333</v>
+      </c>
+      <c r="N6">
+        <v>42.240925</v>
+      </c>
+      <c r="O6">
+        <v>0.1556474304006564</v>
+      </c>
+      <c r="P6">
+        <v>0.1556474304006564</v>
+      </c>
+      <c r="Q6">
+        <v>1.7195435749</v>
+      </c>
+      <c r="R6">
+        <v>15.4758921741</v>
+      </c>
+      <c r="S6">
+        <v>0.003836582536193428</v>
+      </c>
+      <c r="T6">
+        <v>0.003836582536193429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.122124</v>
+      </c>
+      <c r="H7">
+        <v>0.366372</v>
+      </c>
+      <c r="I7">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="J7">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>43.15322233333333</v>
+      </c>
+      <c r="N7">
+        <v>129.459667</v>
+      </c>
+      <c r="O7">
+        <v>0.4770270657916382</v>
+      </c>
+      <c r="P7">
+        <v>0.4770270657916382</v>
+      </c>
+      <c r="Q7">
+        <v>5.270044124236</v>
+      </c>
+      <c r="R7">
+        <v>47.430397118124</v>
+      </c>
+      <c r="S7">
+        <v>0.01175832909799245</v>
+      </c>
+      <c r="T7">
+        <v>0.01175832909799245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.60438815539265</v>
-      </c>
-      <c r="H5">
-        <v>4.60438815539265</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>9.65599870766644</v>
-      </c>
-      <c r="N5">
-        <v>9.65599870766644</v>
-      </c>
-      <c r="O5">
-        <v>0.110463550683379</v>
-      </c>
-      <c r="P5">
-        <v>0.110463550683379</v>
-      </c>
-      <c r="Q5">
-        <v>44.45996607806609</v>
-      </c>
-      <c r="R5">
-        <v>44.45996607806609</v>
-      </c>
-      <c r="S5">
-        <v>0.110463550683379</v>
-      </c>
-      <c r="T5">
-        <v>0.110463550683379</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.122124</v>
+      </c>
+      <c r="H8">
+        <v>0.366372</v>
+      </c>
+      <c r="I8">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="J8">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>21.909414</v>
+      </c>
+      <c r="N8">
+        <v>65.72824199999999</v>
+      </c>
+      <c r="O8">
+        <v>0.2421924229181179</v>
+      </c>
+      <c r="P8">
+        <v>0.242192422918118</v>
+      </c>
+      <c r="Q8">
+        <v>2.675665275336</v>
+      </c>
+      <c r="R8">
+        <v>24.080987478024</v>
+      </c>
+      <c r="S8">
+        <v>0.005969846195174357</v>
+      </c>
+      <c r="T8">
+        <v>0.005969846195174358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.122124</v>
+      </c>
+      <c r="H9">
+        <v>0.366372</v>
+      </c>
+      <c r="I9">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="J9">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.31989366666667</v>
+      </c>
+      <c r="N9">
+        <v>33.959681</v>
+      </c>
+      <c r="O9">
+        <v>0.1251330808895874</v>
+      </c>
+      <c r="P9">
+        <v>0.1251330808895874</v>
+      </c>
+      <c r="Q9">
+        <v>1.382430694148</v>
+      </c>
+      <c r="R9">
+        <v>12.441876247332</v>
+      </c>
+      <c r="S9">
+        <v>0.003084428644952727</v>
+      </c>
+      <c r="T9">
+        <v>0.003084428644952728</v>
       </c>
     </row>
   </sheetData>
